--- a/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16507" windowHeight="9517" activeTab="1"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>Map2</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Chat</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -111,7 +120,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +136,12 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -601,137 +616,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -745,6 +760,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1094,19 +1112,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H12"/>
+  <dimension ref="C3:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1301,6 +1319,57 @@
         <v>21</v>
       </c>
       <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="5">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="5">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="5">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1314,17 +1383,17 @@
   <sheetPr/>
   <dimension ref="C3:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1399,10 +1468,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -1419,10 +1488,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -1439,10 +1508,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -1459,10 +1528,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -1479,10 +1548,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>

--- a/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -120,7 +120,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,12 +136,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -616,137 +610,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -760,9 +754,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1115,7 +1106,7 @@
   <dimension ref="C3:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1325,15 +1316,15 @@
         <v>8</v>
       </c>
       <c r="D13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1342,15 +1333,15 @@
         <v>9</v>
       </c>
       <c r="D14" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1359,15 +1350,15 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="3" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -1106,7 +1106,7 @@
   <dimension ref="C3:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1291,7 +1291,9 @@
       <c r="G11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5">
+        <v>30005</v>
+      </c>
     </row>
     <row r="12" spans="3:8">
       <c r="C12" s="5">
@@ -1309,7 +1311,9 @@
       <c r="G12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5">
+        <v>30006</v>
+      </c>
     </row>
     <row r="13" spans="3:7">
       <c r="C13" s="5">

--- a/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="17370" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -1106,7 +1106,7 @@
   <dimension ref="C3:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17370" windowHeight="14145"/>
+    <workbookView windowHeight="17775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -1105,8 +1105,8 @@
   <sheetPr/>
   <dimension ref="C3:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1184,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1204,7 +1204,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1244,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1262,7 +1262,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -1280,7 +1280,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1300,7 +1300,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -1337,7 +1337,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -1353,8 +1353,8 @@
       <c r="C15" s="5">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>1</v>
+      <c r="D15" s="5">
+        <v>2</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -1378,8 +1378,8 @@
   <sheetPr/>
   <dimension ref="C3:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1457,7 +1457,7 @@
         <v>300</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
         <v>3</v>
@@ -1477,7 +1477,7 @@
         <v>301</v>
       </c>
       <c r="D7" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -1497,7 +1497,7 @@
         <v>302</v>
       </c>
       <c r="D8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -1517,7 +1517,7 @@
         <v>303</v>
       </c>
       <c r="D9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="5">
         <v>3</v>
@@ -1537,7 +1537,7 @@
         <v>304</v>
       </c>
       <c r="D10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5">
         <v>3</v>

--- a/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Chat</t>
+  </si>
+  <si>
+    <t>Game</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -1103,10 +1106,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H15"/>
+  <dimension ref="C3:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1366,6 +1369,23 @@
         <v>24</v>
       </c>
     </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="3">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1378,7 +1398,7 @@
   <sheetPr/>
   <dimension ref="C3:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1463,10 +1483,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -1483,10 +1503,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -1503,10 +1523,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -1523,10 +1543,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -1543,10 +1563,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>

--- a/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -95,6 +95,9 @@
     <t>Game</t>
   </si>
   <si>
+    <t>Account</t>
+  </si>
+  <si>
     <t>RouterManager</t>
   </si>
   <si>
@@ -102,6 +105,9 @@
   </si>
   <si>
     <t>Router01</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
   <si>
     <t>Router02</t>
@@ -1106,10 +1112,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H16"/>
+  <dimension ref="C3:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1386,6 +1392,26 @@
         <v>25</v>
       </c>
     </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="3">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="3">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1396,10 +1422,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H10"/>
+  <dimension ref="B3:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1483,10 +1509,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -1503,16 +1529,19 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:8">
+    <row r="8" s="1" customFormat="1" spans="2:8">
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C8" s="5">
         <v>302</v>
       </c>
@@ -1523,16 +1552,19 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:8">
+    <row r="9" s="1" customFormat="1" spans="2:8">
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C9" s="5">
         <v>303</v>
       </c>
@@ -1543,16 +1575,19 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:8">
+    <row r="10" s="1" customFormat="1" spans="2:8">
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C10" s="5">
         <v>304</v>
       </c>
@@ -1563,10 +1598,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>

--- a/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -92,10 +92,10 @@
     <t>Chat</t>
   </si>
   <si>
-    <t>Game</t>
-  </si>
-  <si>
     <t>Account</t>
+  </si>
+  <si>
+    <t>League</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -1115,7 +1115,7 @@
   <dimension ref="C3:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1375,7 +1375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="3:7">
+    <row r="16" spans="3:8">
       <c r="C16" s="3">
         <v>11</v>
       </c>
@@ -1391,8 +1391,11 @@
       <c r="G16" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="3:8">
+      <c r="H16" s="3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
       <c r="C17" s="3">
         <v>12</v>
       </c>
@@ -1407,9 +1410,6 @@
       </c>
       <c r="G17" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H17" s="3">
-        <v>8000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="21000" windowHeight="17175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Router01</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>Router02</t>
@@ -1114,8 +1111,8 @@
   <sheetPr/>
   <dimension ref="C3:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1422,10 +1419,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:H10"/>
+  <dimension ref="C3:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1538,10 +1535,7 @@
         <v>30301</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="2:8">
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
+    <row r="8" s="1" customFormat="1" spans="3:8">
       <c r="C8" s="5">
         <v>302</v>
       </c>
@@ -1555,16 +1549,13 @@
         <v>28</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:8">
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
+    <row r="9" s="1" customFormat="1" spans="3:8">
       <c r="C9" s="5">
         <v>303</v>
       </c>
@@ -1578,16 +1569,13 @@
         <v>28</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="2:8">
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
+    <row r="10" s="1" customFormat="1" spans="3:8">
       <c r="C10" s="5">
         <v>304</v>
       </c>
@@ -1601,7 +1589,7 @@
         <v>28</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>

--- a/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="17175" activeTab="1"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -1111,21 +1111,21 @@
   <sheetPr/>
   <dimension ref="C3:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6272727272727" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3727272727273" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1272727272727" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" ht="13.5" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" ht="13.5" spans="3:8">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" ht="13.5" spans="3:8">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1297,9 +1297,7 @@
       <c r="G11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="5">
-        <v>30005</v>
-      </c>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="3:8">
       <c r="C12" s="5">
@@ -1317,9 +1315,7 @@
       <c r="G12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="5">
-        <v>30006</v>
-      </c>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="3:7">
       <c r="C13" s="5">
@@ -1389,7 +1385,7 @@
         <v>25</v>
       </c>
       <c r="H16" s="3">
-        <v>8000</v>
+        <v>18010</v>
       </c>
     </row>
     <row r="17" spans="3:7">
@@ -1421,21 +1417,21 @@
   <sheetPr/>
   <dimension ref="C3:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6272727272727" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3727272727273" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1272727272727" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" ht="13.5" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +1451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" ht="13.5" spans="3:8">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1475,7 +1471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" ht="13.5" spans="3:8">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>

--- a/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,18 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Router" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -96,6 +109,9 @@
   </si>
   <si>
     <t>League</t>
+  </si>
+  <si>
+    <t>Activity</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -119,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1109,23 +1125,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H17"/>
+  <dimension ref="C3:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6272727272727" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3727272727273" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1272727272727" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7583333333333" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" ht="13.5" spans="3:8">
+    <row r="3" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1145,7 +1161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="3:8">
+    <row r="4" spans="3:8">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="3:8">
+    <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1403,6 +1419,23 @@
       </c>
       <c r="G17" s="3" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="3">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1421,17 +1454,17 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6272727272727" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3727272727273" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1272727272727" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7583333333333" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" ht="13.5" spans="3:8">
+    <row r="3" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="3:8">
+    <row r="4" spans="3:8">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1471,7 +1504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="3:8">
+    <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1502,10 +1535,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -1522,10 +1555,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -1542,10 +1575,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -1562,10 +1595,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -1582,10 +1615,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>

--- a/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -1128,7 +1128,7 @@
   <dimension ref="C3:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1206,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1226,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1246,7 +1246,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1266,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -1302,7 +1302,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -1338,7 +1338,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -1355,7 +1355,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -1372,7 +1372,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -1388,8 +1388,8 @@
       <c r="C16" s="3">
         <v>11</v>
       </c>
-      <c r="D16" s="3">
-        <v>2</v>
+      <c r="D16" s="5">
+        <v>1</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1408,8 +1408,8 @@
       <c r="C17" s="3">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>2</v>
+      <c r="D17" s="5">
+        <v>1</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1425,8 +1425,8 @@
       <c r="C18" s="3">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>2</v>
+      <c r="D18" s="5">
+        <v>1</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1451,7 +1451,7 @@
   <dimension ref="C3:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1529,10 +1529,10 @@
         <v>300</v>
       </c>
       <c r="D6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>28</v>
@@ -1549,10 +1549,10 @@
         <v>301</v>
       </c>
       <c r="D7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>29</v>
@@ -1569,10 +1569,10 @@
         <v>302</v>
       </c>
       <c r="D8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>29</v>
@@ -1589,10 +1589,10 @@
         <v>303</v>
       </c>
       <c r="D9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>29</v>
@@ -1609,10 +1609,10 @@
         <v>304</v>
       </c>
       <c r="D10" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>29</v>

--- a/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Router" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -151,13 +152,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -764,18 +765,18 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1127,314 +1128,314 @@
   <sheetPr/>
   <dimension ref="C3:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7583333333333" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.7583333333333" style="4" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="5" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:8">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="s">
+    <row r="6" s="3" customFormat="1" spans="3:8">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="2">
         <v>30002</v>
       </c>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="2">
         <v>30003</v>
       </c>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="2">
         <v>30004</v>
       </c>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="5">
+      <c r="C12" s="2">
         <v>7</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="5">
+      <c r="C13" s="2">
         <v>8</v>
       </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="5">
+      <c r="C14" s="2">
         <v>9</v>
       </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="5">
+      <c r="C15" s="2">
         <v>10</v>
       </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <v>11</v>
       </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="5">
         <v>18010</v>
       </c>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="3">
+      <c r="C17" s="5">
         <v>12</v>
       </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <v>13</v>
       </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1456,171 +1457,171 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7583333333333" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.7583333333333" style="4" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="5" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:8">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
-      <c r="C6" s="5">
+    <row r="6" s="3" customFormat="1" spans="3:8">
+      <c r="C6" s="2">
         <v>300</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="2">
         <v>30300</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:8">
-      <c r="C7" s="5">
+    <row r="7" s="3" customFormat="1" spans="3:8">
+      <c r="C7" s="2">
         <v>301</v>
       </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="2">
         <v>30301</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:8">
-      <c r="C8" s="5">
+    <row r="8" s="3" customFormat="1" spans="3:8">
+      <c r="C8" s="2">
         <v>302</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="2">
         <v>30302</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:8">
-      <c r="C9" s="5">
+    <row r="9" s="3" customFormat="1" spans="3:8">
+      <c r="C9" s="2">
         <v>303</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="2">
         <v>30303</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:8">
-      <c r="C10" s="5">
+    <row r="10" s="3" customFormat="1" spans="3:8">
+      <c r="C10" s="2">
         <v>304</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="2">
         <v>30304</v>
       </c>
     </row>
@@ -1629,4 +1630,89 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="3" ht="14.25" spans="3:8">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="3:8">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="3:8">
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="3:8">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>